--- a/others/量化投资/THS/自动化交易_同花顺/data/组合榜单列表.xlsx
+++ b/others/量化投资/THS/自动化交易_同花顺/data/组合榜单列表.xlsx
@@ -1,13 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="月收益" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="月收益 前二十" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="总收益" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="总收益 前二十" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,487 +439,2685 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>组合id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>组合名称</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>收益率%</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>组合作者</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>作者id</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>组合收益</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>标签</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>作者</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>19347</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>609.46</v>
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>19494</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>步步为赢1号</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>模拟持仓：富森美, 累计抓涨停45次</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>华源证券王坤团队</t>
+          <t>华龙证券温志芸</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>696995624</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>111.64%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>累计抓涨停13次</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8187</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>格律诗免费</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>403.28</v>
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>29329</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>低估安全</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>模拟持仓：赛力斯, 累计抓涨停89次</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>渤海证券孙永清</t>
+          <t>中山证券李文琰</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>730119227</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>87.42%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>盈利超过86%同类</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>18565</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>龙头一年三倍</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>381.14</v>
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>18758</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恰柠檬之聚焦龙头</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>模拟持仓：广博股份, 累计抓涨停16次</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>国融证券葛多玲</t>
+          <t>民生证券苑小光</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>346805654</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>80.41%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>累计抓涨停34次</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7152</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>中线龙头</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>362.69</v>
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>12497</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泽磊超短</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>模拟持仓：永茂泰, 累计抓涨停67次</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>万和证券陈大松</t>
+          <t>华龙证券赵慎磊</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>341291402</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>66.43%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>累计抓涨停29次</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>19880</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>先锋擒龙</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>361.26</v>
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>24067</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>龙虎榜1号</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>累计抓涨停27次</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>联储证券周春耕</t>
+          <t>华金证券彭巍</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>338788027</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>65.69%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>累计抓涨停17次</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>18868</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>价值精选1期</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>313.38</v>
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>23657</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>滚雪球金钥匙8号</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>模拟持仓：贵州茅台, 累计抓涨停21次</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>华龙证券庄冠民</t>
+          <t>华金证券向媛媛</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>459143452</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>64.29%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>累计抓涨停11次</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>14980</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>波段突击战法</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>304.32</v>
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>23661</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>起爆主升首板战法</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>模拟持仓：汉得信息, 累计抓涨停183次</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>长城证券姬忠栋</t>
+          <t>股道5178</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>382249703</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>62.47%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>累计抓涨停8次</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>16281</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>每天进步一点点</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>300.73</v>
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>12424</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>跨越牛熊长期牛</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>模拟持仓：蜂助手, 累计抓涨停18次</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>红塔证券石善广</t>
+          <t>国融证券刘林星</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>324869371</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>62.14%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>累计抓涨停10次</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>20673</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>江湖大道14</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>262.59</v>
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>24446</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金榜组合</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>模拟持仓：福莱新材, 累计抓涨停13次</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>中邮证券龚斌</t>
+          <t>黄国锐</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>647941791</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>60.07%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>累计抓涨停5次</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11094</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>低位题材埋伏</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>235.4</v>
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>19331</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>低波择时</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>模拟持仓：思进智能, 累计抓涨停16次</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>华林证券过往畅</t>
+          <t>东海证券王宁</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>194189061</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>59.36%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>累计抓涨停19次</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>13081</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>好赛道出牛股</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>206.77</v>
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>20218</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>权赢超短利刃队</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>模拟持仓：恒瑞医药, 累计抓涨停67次</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>华龙证券张红</t>
+          <t>华龙证券郝杰</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>426206349</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>58.48%</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>累计抓涨停10次</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6602</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>博弈大师</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>204.04</v>
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>23656</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>滚雪球金钥匙6号</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>模拟持仓：格灵深瞳, 累计抓涨停44次</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>万和证券徐坚</t>
+          <t>华金证券向媛媛</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>459143452</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>56.35%</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>累计抓涨停9次</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>20335</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>财经扑克桃1</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>201.81</v>
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>24343</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大吉大利今天涨停</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>模拟持仓：宇瞳光学, 累计抓涨停7次</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>联储证券杨凡</t>
+          <t>东北证券李冠</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>514429998</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>55.98%</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>盈利超过87%同类</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>18758</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>恰柠檬之聚焦龙头</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>197.43</v>
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>22599</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>主线999</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>模拟持仓：每日互动, 累计抓涨停29次</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>民生证券苑小光</t>
+          <t>联储证券江涛团队</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>562846377</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>55.11%</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>累计抓涨停7次</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>12436</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>跨越牛熊牛股不停</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>181.33</v>
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>7080</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>起爆主升中线波段</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>模拟持仓：兰卫医学, 累计抓涨停9次</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>国融证券刘林星</t>
+          <t>股道5178</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>382249703</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>52.38%</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>累计抓涨停160次</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>9564</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>梦想2号</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>181.29</v>
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>20205</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>步步为赢2号</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>模拟持仓：中国广核, 累计抓涨停12次</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>华龙证券杨学涛</t>
+          <t>华龙证券温志芸</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>696995624</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>50.66%</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>累计抓涨停23次</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>9022</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>内容涉嫌违规</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>180.99</v>
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>11061</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新蜂</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>模拟持仓：省广集团, 累计抓涨停22次</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>财达证券翟宇飞</t>
+          <t>华龙证券刘许召</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>682529491</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>48.77%</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>累计抓涨停10次</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>18710</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>稳扎稳打66</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>178.89</v>
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>7220</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>卧虎藏龙</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>模拟持仓：欧菲光, 累计抓涨停11次</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>申港证券李春阳</t>
+          <t>万和证券陈大松</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>584897603</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>48.19%</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>累计抓涨停38次</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6994</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>梦想1号</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>176.91</v>
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>8607</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>节奏快一点</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>模拟持仓：中芯国际, 累计抓涨停22次</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>华龙证券杨学涛</t>
+          <t>东方证券焦贤胜</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>595805597</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>39.47%</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>累计抓涨停51次</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>18669</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>主升的穿云箭</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>168.88</v>
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20348</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>进攻成长</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>模拟持仓：海南华铁, 累计抓涨停7次</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
+          <t>邢少凯88</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>682421322</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>39.30%</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>累计抓涨停5次</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>组合id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>组合名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>组合作者</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>作者id</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>组合收益</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>标签</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>19494</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>步步为赢1号</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>华龙证券温志芸</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>696995624</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>111.64%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>累计抓涨停13次</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>29329</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>低估安全</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>中山证券李文琰</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>730119227</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>87.42%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>盈利超过86%同类</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>18758</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恰柠檬之聚焦龙头</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>民生证券苑小光</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>346805654</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>80.41%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>累计抓涨停34次</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>12497</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泽磊超短</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>华龙证券赵慎磊</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>341291402</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>66.43%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>累计抓涨停29次</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>24067</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>龙虎榜1号</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>华金证券彭巍</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>338788027</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>65.69%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>累计抓涨停17次</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>23657</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>滚雪球金钥匙8号</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>华金证券向媛媛</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>459143452</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>64.29%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>累计抓涨停11次</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>23661</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>起爆主升首板战法</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>股道5178</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>382249703</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>62.47%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>累计抓涨停8次</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>12424</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>跨越牛熊长期牛</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>国融证券刘林星</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>324869371</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>62.14%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>累计抓涨停10次</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>24446</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金榜组合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>黄国锐</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>647941791</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>60.07%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>累计抓涨停5次</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>19331</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>低波择时</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>东海证券王宁</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>194189061</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>59.36%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>累计抓涨停19次</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>20218</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>权赢超短利刃队</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>华龙证券郝杰</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>426206349</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>58.48%</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>累计抓涨停10次</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>23656</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>滚雪球金钥匙6号</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>华金证券向媛媛</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>459143452</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>56.35%</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>累计抓涨停9次</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>24343</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大吉大利今天涨停</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>东北证券李冠</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>514429998</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>55.98%</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>盈利超过87%同类</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>22599</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>主线999</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>联储证券江涛团队</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>562846377</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>55.11%</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>累计抓涨停7次</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>7080</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>起爆主升中线波段</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>股道5178</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>382249703</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>52.38%</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>累计抓涨停160次</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>20205</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>步步为赢2号</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>华龙证券温志芸</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>696995624</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>50.66%</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>累计抓涨停23次</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>11061</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新蜂</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>华龙证券刘许召</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>682529491</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>48.77%</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>累计抓涨停10次</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>7220</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>卧虎藏龙</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>万和证券陈大松</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>584897603</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>48.19%</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>累计抓涨停38次</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>8607</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>节奏快一点</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>东方证券焦贤胜</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>595805597</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>39.47%</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>累计抓涨停51次</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20348</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>进攻成长</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>邢少凯88</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>682421322</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>39.30%</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>累计抓涨停5次</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>组合id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>组合名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>组合作者</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>作者id</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>组合收益</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>标签</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>19347</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>华源证券王坤团队</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>722925685</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>623.37%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>累计抓涨停45次</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7152</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中线龙头</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>万和证券陈大松</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>584897603</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>455.78%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>累计抓涨停69次</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>19880</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>先锋擒龙</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>联储证券周春耕</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>138467109</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>361.26%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>累计抓涨停27次</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>18565</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>龙头一年三倍</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>葛多玲</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>535178795</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>349.36%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>累计抓涨停16次</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>18868</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>价值精选1期</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>华龙证券庄冠民</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>660400399</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>309.12%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>累计抓涨停21次</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>11094</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>低位题材埋伏</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>华林证券过往畅</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>517861701</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>278.57%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>累计抓涨停16次</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20335</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财经扑克桃1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>联储证券杨凡</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>513464951</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>249.28%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>累计抓涨停7次</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>14980</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>波段突击战法</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>长城证券姬忠栋</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>648078109</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>236.11%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>累计抓涨停184次</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>16281</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>每天进步一点点</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>红塔证券石善广</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>577530029</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>227.45%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>累计抓涨停18次</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>20205</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>步步为赢2号</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>华龙证券温志芸</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>696995624</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>218.41%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>累计抓涨停23次</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>18758</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>恰柠檬之聚焦龙头</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>民生证券苑小光</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>346805654</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>208.61%</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>累计抓涨停34次</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>13081</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>好赛道出牛股</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>华龙证券张红</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>658762275</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>207.39%</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>累计抓涨停67次</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>19494</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>步步为赢1号</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>华龙证券温志芸</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>696995624</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>198.86%</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>累计抓涨停13次</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>12436</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>跨越牛熊牛股不停</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>国融证券刘林星</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>324869371</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>197.03%</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>累计抓涨停9次</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>9564</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>梦想2号</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>华龙证券杨学涛</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>555661550</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>188.34%</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>累计抓涨停12次</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>18710</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>稳扎稳打66</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>申港证券李春阳</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>371102096</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>182.29%</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>累计抓涨停11次</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>6994</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>梦想1号</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>华龙证券杨学涛</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>555661550</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>179.84%</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>累计抓涨停22次</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>6602</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博弈大师</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>万和证券徐坚</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>81845978</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>169.33%</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>累计抓涨停44次</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>20245</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财富快线</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>华龙证券许卉玫</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>716017305</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>165.22%</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>累计抓涨停11次</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>12497</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泽磊超短</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>华龙证券赵慎磊</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>341291402</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>156.42%</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>累计抓涨停29次</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>组合id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>组合名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>组合作者</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>作者id</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>组合收益</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>标签</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>19347</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>华源证券王坤团队</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>722925685</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>623.37%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>累计抓涨停45次</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7152</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中线龙头</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>万和证券陈大松</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>584897603</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>455.78%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>累计抓涨停69次</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>19880</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>先锋擒龙</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>联储证券周春耕</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>138467109</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>361.26%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>累计抓涨停27次</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>18565</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>龙头一年三倍</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>葛多玲</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>535178795</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>349.36%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>累计抓涨停16次</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>18868</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>价值精选1期</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>华龙证券庄冠民</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>660400399</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>309.12%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>累计抓涨停21次</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>11094</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>低位题材埋伏</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>华林证券过往畅</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>517861701</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>278.57%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>累计抓涨停16次</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20335</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财经扑克桃1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>联储证券杨凡</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>513464951</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>249.28%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>累计抓涨停7次</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>14980</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>波段突击战法</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>长城证券姬忠栋</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>648078109</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>236.11%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>累计抓涨停184次</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>16281</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>每天进步一点点</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>红塔证券石善广</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>577530029</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>227.45%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>累计抓涨停18次</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>20205</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>步步为赢2号</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>华龙证券温志芸</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>696995624</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>218.41%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>累计抓涨停23次</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>18758</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>恰柠檬之聚焦龙头</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>民生证券苑小光</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>346805654</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>208.61%</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>累计抓涨停34次</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>13081</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>好赛道出牛股</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>华龙证券张红</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>658762275</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>207.39%</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>累计抓涨停67次</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>19494</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>步步为赢1号</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>华龙证券温志芸</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>696995624</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>198.86%</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>累计抓涨停13次</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>12436</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>跨越牛熊牛股不停</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>国融证券刘林星</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>324869371</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>197.03%</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>累计抓涨停9次</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>9564</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>梦想2号</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>华龙证券杨学涛</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>555661550</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>188.34%</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>累计抓涨停12次</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>18710</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>稳扎稳打66</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>申港证券李春阳</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>371102096</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>182.29%</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>累计抓涨停11次</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>6994</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>梦想1号</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>华龙证券杨学涛</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>555661550</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>179.84%</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>累计抓涨停22次</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>6602</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博弈大师</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>万和证券徐坚</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>81845978</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>169.33%</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>累计抓涨停44次</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>20245</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财富快线</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>华龙证券许卉玫</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>716017305</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>165.22%</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>累计抓涨停11次</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>12497</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泽磊超短</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>华龙证券赵慎磊</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>341291402</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>156.42%</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>累计抓涨停29次</t>
         </is>
       </c>
     </row>

--- a/others/量化投资/THS/自动化交易_同花顺/data/组合榜单列表.xlsx
+++ b/others/量化投资/THS/自动化交易_同花顺/data/组合榜单列表.xlsx
@@ -478,29 +478,29 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>19494</v>
+        <v>29734</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>步步为赢1号</t>
+          <t>热点追击ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>华龙证券温志芸</t>
+          <t>山西证券雷健健</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>696995624</v>
+        <v>408196716</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>111.64%</t>
+          <t>27.79%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>累计抓涨停13次</t>
+          <t>盈利超过88%同类</t>
         </is>
       </c>
     </row>
@@ -509,29 +509,29 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>29329</v>
+        <v>29656</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>低估安全</t>
+          <t>龙头驾到ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>中山证券李文琰</t>
+          <t>东莞证券吴万叻团队</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>730119227</v>
+        <v>555348412</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>87.42%</t>
+          <t>26.96%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>盈利超过86%同类</t>
+          <t>盈利超过87%同类</t>
         </is>
       </c>
     </row>
@@ -540,29 +540,29 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>18758</v>
+        <v>29669</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>恰柠檬之聚焦龙头</t>
+          <t>波段优选ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>民生证券苑小光</t>
+          <t>华源证券王庆芸</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>346805654</v>
+        <v>494769398</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>80.41%</t>
+          <t>25.11%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>累计抓涨停34次</t>
+          <t>盈利超过86%同类</t>
         </is>
       </c>
     </row>
@@ -571,29 +571,29 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12497</v>
+        <v>29678</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泽磊超短</t>
+          <t>科技腾飞精选</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>华龙证券赵慎磊</t>
+          <t>华源证券孙振</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>341291402</v>
+        <v>720851584</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>66.43%</t>
+          <t>20.78%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>累计抓涨停29次</t>
+          <t>盈利超过84%同类</t>
         </is>
       </c>
     </row>
@@ -602,29 +602,29 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24067</v>
+        <v>29705</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>龙虎榜1号</t>
+          <t>行业轮动俱荣先锋</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>华金证券彭巍</t>
+          <t>东莞证券马静</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>338788027</v>
+        <v>163765838</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>65.69%</t>
+          <t>19.98%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>累计抓涨停17次</t>
+          <t>盈利超过84%同类</t>
         </is>
       </c>
     </row>
@@ -633,29 +633,29 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>23657</v>
+        <v>29761</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>滚雪球金钥匙8号</t>
+          <t>精选波段组合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>华金证券向媛媛</t>
+          <t>民生证券范文秀</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>459143452</v>
+        <v>679685562</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>64.29%</t>
+          <t>17.08%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>累计抓涨停11次</t>
+          <t>盈利超过82%同类</t>
         </is>
       </c>
     </row>
@@ -664,29 +664,29 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>23661</v>
+        <v>29617</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>起爆主升首板战法</t>
+          <t>ETF灵蛇智投</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>股道5178</t>
+          <t>华龙证券左海瑞</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>382249703</v>
+        <v>170131901</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>62.47%</t>
+          <t>16.82%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>累计抓涨停8次</t>
+          <t>盈利超过82%同类</t>
         </is>
       </c>
     </row>
@@ -695,29 +695,29 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>12424</v>
+        <v>29634</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>跨越牛熊长期牛</t>
+          <t>主题轮动精选</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>国融证券刘林星</t>
+          <t>华龙证券张红</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>324869371</v>
+        <v>658762275</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>62.14%</t>
+          <t>15.75%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>累计抓涨停10次</t>
+          <t>盈利超过81%同类</t>
         </is>
       </c>
     </row>
@@ -726,29 +726,29 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24446</v>
+        <v>29702</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>金榜组合</t>
+          <t>前沿产业增配</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>黄国锐</t>
+          <t>粤开证券马鑫</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>647941791</v>
+        <v>474778890</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>60.07%</t>
+          <t>14.59%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>累计抓涨停5次</t>
+          <t>盈利超过80%同类</t>
         </is>
       </c>
     </row>
@@ -757,29 +757,29 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19331</v>
+        <v>29719</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>低波择时</t>
+          <t>ETF板块热点</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>东海证券王宁</t>
+          <t>中山证券林嘉亮</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>194189061</v>
+        <v>514564146</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>59.36%</t>
+          <t>14.37%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>累计抓涨停19次</t>
+          <t>盈利超过80%同类</t>
         </is>
       </c>
     </row>
@@ -788,29 +788,29 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20218</v>
+        <v>29684</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>权赢超短利刃队</t>
+          <t>主题成长优选</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>华龙证券郝杰</t>
+          <t>国融证券苏学鹏</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>426206349</v>
+        <v>548823814</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>58.48%</t>
+          <t>14.15%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>累计抓涨停10次</t>
+          <t>盈利超过80%同类</t>
         </is>
       </c>
     </row>
@@ -819,29 +819,29 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>23656</v>
+        <v>29642</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>滚雪球金钥匙6号</t>
+          <t>ETF波段低吸</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>华金证券向媛媛</t>
+          <t>粤开证券杨林林</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>459143452</v>
+        <v>141016951</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>56.35%</t>
+          <t>13.81%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>累计抓涨停9次</t>
+          <t>盈利超过80%同类</t>
         </is>
       </c>
     </row>
@@ -850,29 +850,29 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24343</v>
+        <v>29646</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>大吉大利今天涨停</t>
+          <t>热点追踪猎手</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>东北证券李冠</t>
+          <t>东莞证券许月东</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>514429998</v>
+        <v>445001073</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>55.98%</t>
+          <t>12.80%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>盈利超过87%同类</t>
+          <t>盈利超过79%同类</t>
         </is>
       </c>
     </row>
@@ -881,29 +881,29 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22599</v>
+        <v>29706</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>主线999</t>
+          <t>资产全球配置</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>联储证券江涛团队</t>
+          <t>粤开证券马惠根</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>562846377</v>
+        <v>625345560</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>55.11%</t>
+          <t>12.66%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>累计抓涨停7次</t>
+          <t>盈利超过79%同类</t>
         </is>
       </c>
     </row>
@@ -912,29 +912,29 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>7080</v>
+        <v>29649</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>起爆主升中线波段</t>
+          <t>智网科技精选</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>股道5178</t>
+          <t>粤开证券徐巍巍</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>382249703</v>
+        <v>503957794</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>52.38%</t>
+          <t>12.40%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>累计抓涨停160次</t>
+          <t>盈利超过79%同类</t>
         </is>
       </c>
     </row>
@@ -943,29 +943,29 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20205</v>
+        <v>29639</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>步步为赢2号</t>
+          <t>海内外etf</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>华龙证券温志芸</t>
+          <t>粤开证券尹红飞</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>696995624</v>
+        <v>172320718</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>50.66%</t>
+          <t>12.20%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>累计抓涨停23次</t>
+          <t>盈利超过79%同类</t>
         </is>
       </c>
     </row>
@@ -974,29 +974,29 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>11061</v>
+        <v>29762</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>新蜂</t>
+          <t>全球领先ETF</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>华龙证券刘许召</t>
+          <t>粤开证券杜明学</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>682529491</v>
+        <v>347774050</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>48.77%</t>
+          <t>11.76%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>累计抓涨停10次</t>
+          <t>盈利超过78%同类</t>
         </is>
       </c>
     </row>
@@ -1005,29 +1005,29 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>7220</v>
+        <v>30059</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>卧虎藏龙</t>
+          <t>擒妖百宝袋ETF</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>万和证券陈大松</t>
+          <t>东证许同心小魔女团队</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>584897603</v>
+        <v>255279833</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>48.19%</t>
+          <t>11.15%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>累计抓涨停38次</t>
+          <t>盈利超过78%同类</t>
         </is>
       </c>
     </row>
@@ -1036,29 +1036,29 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>8607</v>
+        <v>29749</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>节奏快一点</t>
+          <t>全球科技精选</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>东方证券焦贤胜</t>
+          <t>大同证券郭地发</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>595805597</v>
+        <v>116692241</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>39.47%</t>
+          <t>11.07%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>累计抓涨停51次</t>
+          <t>盈利超过78%同类</t>
         </is>
       </c>
     </row>
@@ -1067,29 +1067,29 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>20348</v>
+        <v>29753</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>进攻成长</t>
+          <t>猎场稳健ETF</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>邢少凯88</t>
+          <t>山西证券巩朝文</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>682421322</v>
+        <v>686791594</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>39.30%</t>
+          <t>10.89%</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>累计抓涨停5次</t>
+          <t>盈利超过77%同类</t>
         </is>
       </c>
     </row>
@@ -1154,29 +1154,29 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>19494</v>
+        <v>29734</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>步步为赢1号</t>
+          <t>热点追击ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>华龙证券温志芸</t>
+          <t>山西证券雷健健</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>696995624</v>
+        <v>408196716</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>111.64%</t>
+          <t>27.79%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>累计抓涨停13次</t>
+          <t>盈利超过88%同类</t>
         </is>
       </c>
     </row>
@@ -1185,29 +1185,29 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>29329</v>
+        <v>29656</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>低估安全</t>
+          <t>龙头驾到ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>中山证券李文琰</t>
+          <t>东莞证券吴万叻团队</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>730119227</v>
+        <v>555348412</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>87.42%</t>
+          <t>26.96%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>盈利超过86%同类</t>
+          <t>盈利超过87%同类</t>
         </is>
       </c>
     </row>
@@ -1216,29 +1216,29 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>18758</v>
+        <v>29669</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>恰柠檬之聚焦龙头</t>
+          <t>波段优选ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>民生证券苑小光</t>
+          <t>华源证券王庆芸</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>346805654</v>
+        <v>494769398</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>80.41%</t>
+          <t>25.11%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>累计抓涨停34次</t>
+          <t>盈利超过86%同类</t>
         </is>
       </c>
     </row>
@@ -1247,29 +1247,29 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12497</v>
+        <v>29678</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泽磊超短</t>
+          <t>科技腾飞精选</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>华龙证券赵慎磊</t>
+          <t>华源证券孙振</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>341291402</v>
+        <v>720851584</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>66.43%</t>
+          <t>20.78%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>累计抓涨停29次</t>
+          <t>盈利超过84%同类</t>
         </is>
       </c>
     </row>
@@ -1278,29 +1278,29 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24067</v>
+        <v>29705</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>龙虎榜1号</t>
+          <t>行业轮动俱荣先锋</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>华金证券彭巍</t>
+          <t>东莞证券马静</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>338788027</v>
+        <v>163765838</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>65.69%</t>
+          <t>19.98%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>累计抓涨停17次</t>
+          <t>盈利超过84%同类</t>
         </is>
       </c>
     </row>
@@ -1309,29 +1309,29 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>23657</v>
+        <v>29761</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>滚雪球金钥匙8号</t>
+          <t>精选波段组合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>华金证券向媛媛</t>
+          <t>民生证券范文秀</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>459143452</v>
+        <v>679685562</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>64.29%</t>
+          <t>17.08%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>累计抓涨停11次</t>
+          <t>盈利超过82%同类</t>
         </is>
       </c>
     </row>
@@ -1340,29 +1340,29 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>23661</v>
+        <v>29617</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>起爆主升首板战法</t>
+          <t>ETF灵蛇智投</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>股道5178</t>
+          <t>华龙证券左海瑞</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>382249703</v>
+        <v>170131901</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>62.47%</t>
+          <t>16.82%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>累计抓涨停8次</t>
+          <t>盈利超过82%同类</t>
         </is>
       </c>
     </row>
@@ -1371,29 +1371,29 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>12424</v>
+        <v>29634</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>跨越牛熊长期牛</t>
+          <t>主题轮动精选</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>国融证券刘林星</t>
+          <t>华龙证券张红</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>324869371</v>
+        <v>658762275</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>62.14%</t>
+          <t>15.75%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>累计抓涨停10次</t>
+          <t>盈利超过81%同类</t>
         </is>
       </c>
     </row>
@@ -1402,29 +1402,29 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24446</v>
+        <v>29702</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>金榜组合</t>
+          <t>前沿产业增配</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>黄国锐</t>
+          <t>粤开证券马鑫</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>647941791</v>
+        <v>474778890</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>60.07%</t>
+          <t>14.59%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>累计抓涨停5次</t>
+          <t>盈利超过80%同类</t>
         </is>
       </c>
     </row>
@@ -1433,29 +1433,29 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19331</v>
+        <v>29719</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>低波择时</t>
+          <t>ETF板块热点</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>东海证券王宁</t>
+          <t>中山证券林嘉亮</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>194189061</v>
+        <v>514564146</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>59.36%</t>
+          <t>14.37%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>累计抓涨停19次</t>
+          <t>盈利超过80%同类</t>
         </is>
       </c>
     </row>
@@ -1464,29 +1464,29 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20218</v>
+        <v>29684</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>权赢超短利刃队</t>
+          <t>主题成长优选</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>华龙证券郝杰</t>
+          <t>国融证券苏学鹏</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>426206349</v>
+        <v>548823814</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>58.48%</t>
+          <t>14.15%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>累计抓涨停10次</t>
+          <t>盈利超过80%同类</t>
         </is>
       </c>
     </row>
@@ -1495,29 +1495,29 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>23656</v>
+        <v>29642</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>滚雪球金钥匙6号</t>
+          <t>ETF波段低吸</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>华金证券向媛媛</t>
+          <t>粤开证券杨林林</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>459143452</v>
+        <v>141016951</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>56.35%</t>
+          <t>13.81%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>累计抓涨停9次</t>
+          <t>盈利超过80%同类</t>
         </is>
       </c>
     </row>
@@ -1526,29 +1526,29 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24343</v>
+        <v>29646</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>大吉大利今天涨停</t>
+          <t>热点追踪猎手</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>东北证券李冠</t>
+          <t>东莞证券许月东</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>514429998</v>
+        <v>445001073</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>55.98%</t>
+          <t>12.80%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>盈利超过87%同类</t>
+          <t>盈利超过79%同类</t>
         </is>
       </c>
     </row>
@@ -1557,29 +1557,29 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22599</v>
+        <v>29706</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>主线999</t>
+          <t>资产全球配置</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>联储证券江涛团队</t>
+          <t>粤开证券马惠根</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>562846377</v>
+        <v>625345560</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>55.11%</t>
+          <t>12.66%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>累计抓涨停7次</t>
+          <t>盈利超过79%同类</t>
         </is>
       </c>
     </row>
@@ -1588,29 +1588,29 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>7080</v>
+        <v>29649</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>起爆主升中线波段</t>
+          <t>智网科技精选</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>股道5178</t>
+          <t>粤开证券徐巍巍</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>382249703</v>
+        <v>503957794</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>52.38%</t>
+          <t>12.40%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>累计抓涨停160次</t>
+          <t>盈利超过79%同类</t>
         </is>
       </c>
     </row>
@@ -1619,29 +1619,29 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20205</v>
+        <v>29639</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>步步为赢2号</t>
+          <t>海内外etf</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>华龙证券温志芸</t>
+          <t>粤开证券尹红飞</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>696995624</v>
+        <v>172320718</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>50.66%</t>
+          <t>12.20%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>累计抓涨停23次</t>
+          <t>盈利超过79%同类</t>
         </is>
       </c>
     </row>
@@ -1650,29 +1650,29 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>11061</v>
+        <v>29762</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>新蜂</t>
+          <t>全球领先ETF</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>华龙证券刘许召</t>
+          <t>粤开证券杜明学</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>682529491</v>
+        <v>347774050</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>48.77%</t>
+          <t>11.76%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>累计抓涨停10次</t>
+          <t>盈利超过78%同类</t>
         </is>
       </c>
     </row>
@@ -1681,29 +1681,29 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>7220</v>
+        <v>30059</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>卧虎藏龙</t>
+          <t>擒妖百宝袋ETF</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>万和证券陈大松</t>
+          <t>东证许同心小魔女团队</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>584897603</v>
+        <v>255279833</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>48.19%</t>
+          <t>11.15%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>累计抓涨停38次</t>
+          <t>盈利超过78%同类</t>
         </is>
       </c>
     </row>
@@ -1712,29 +1712,29 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>8607</v>
+        <v>29749</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>节奏快一点</t>
+          <t>全球科技精选</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>东方证券焦贤胜</t>
+          <t>大同证券郭地发</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>595805597</v>
+        <v>116692241</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>39.47%</t>
+          <t>11.07%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>累计抓涨停51次</t>
+          <t>盈利超过78%同类</t>
         </is>
       </c>
     </row>
@@ -1743,29 +1743,29 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>20348</v>
+        <v>29753</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>进攻成长</t>
+          <t>猎场稳健ETF</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>邢少凯88</t>
+          <t>山西证券巩朝文</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>682421322</v>
+        <v>686791594</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>39.30%</t>
+          <t>10.89%</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>累计抓涨停5次</t>
+          <t>盈利超过77%同类</t>
         </is>
       </c>
     </row>
@@ -1830,29 +1830,29 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>19347</v>
+        <v>29734</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>超短稳定复利</t>
+          <t>热点追击ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>华源证券王坤团队</t>
+          <t>山西证券雷健健</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>722925685</v>
+        <v>408196716</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>623.37%</t>
+          <t>27.79%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>累计抓涨停45次</t>
+          <t>盈利超过88%同类</t>
         </is>
       </c>
     </row>
@@ -1861,29 +1861,29 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7152</v>
+        <v>29656</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中线龙头</t>
+          <t>龙头驾到ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>万和证券陈大松</t>
+          <t>东莞证券吴万叻团队</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>584897603</v>
+        <v>555348412</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>455.78%</t>
+          <t>26.96%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>累计抓涨停69次</t>
+          <t>盈利超过87%同类</t>
         </is>
       </c>
     </row>
@@ -1892,29 +1892,29 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>19880</v>
+        <v>29669</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>先锋擒龙</t>
+          <t>波段优选ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>联储证券周春耕</t>
+          <t>华源证券王庆芸</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>138467109</v>
+        <v>494769398</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>361.26%</t>
+          <t>25.11%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>累计抓涨停27次</t>
+          <t>盈利超过86%同类</t>
         </is>
       </c>
     </row>
@@ -1923,29 +1923,29 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>18565</v>
+        <v>29678</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>龙头一年三倍</t>
+          <t>科技腾飞精选</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>葛多玲</t>
+          <t>华源证券孙振</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>535178795</v>
+        <v>720851584</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>349.36%</t>
+          <t>20.78%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>累计抓涨停16次</t>
+          <t>盈利超过84%同类</t>
         </is>
       </c>
     </row>
@@ -1954,29 +1954,29 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18868</v>
+        <v>29705</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>价值精选1期</t>
+          <t>行业轮动俱荣先锋</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>华龙证券庄冠民</t>
+          <t>东莞证券马静</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>660400399</v>
+        <v>163765838</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>309.12%</t>
+          <t>19.98%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>累计抓涨停21次</t>
+          <t>盈利超过84%同类</t>
         </is>
       </c>
     </row>
@@ -1985,29 +1985,29 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11094</v>
+        <v>29761</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>低位题材埋伏</t>
+          <t>精选波段组合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>华林证券过往畅</t>
+          <t>民生证券范文秀</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>517861701</v>
+        <v>679685562</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>278.57%</t>
+          <t>17.08%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>累计抓涨停16次</t>
+          <t>盈利超过82%同类</t>
         </is>
       </c>
     </row>
@@ -2016,29 +2016,29 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20335</v>
+        <v>29617</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>财经扑克桃1</t>
+          <t>ETF灵蛇智投</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>联储证券杨凡</t>
+          <t>华龙证券左海瑞</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>513464951</v>
+        <v>170131901</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>249.28%</t>
+          <t>16.82%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>累计抓涨停7次</t>
+          <t>盈利超过82%同类</t>
         </is>
       </c>
     </row>
@@ -2047,29 +2047,29 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14980</v>
+        <v>29634</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>波段突击战法</t>
+          <t>主题轮动精选</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>长城证券姬忠栋</t>
+          <t>华龙证券张红</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>648078109</v>
+        <v>658762275</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>236.11%</t>
+          <t>15.75%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>累计抓涨停184次</t>
+          <t>盈利超过81%同类</t>
         </is>
       </c>
     </row>
@@ -2078,29 +2078,29 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16281</v>
+        <v>29702</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>每天进步一点点</t>
+          <t>前沿产业增配</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>红塔证券石善广</t>
+          <t>粤开证券马鑫</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>577530029</v>
+        <v>474778890</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>227.45%</t>
+          <t>14.59%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>累计抓涨停18次</t>
+          <t>盈利超过80%同类</t>
         </is>
       </c>
     </row>
@@ -2109,29 +2109,29 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20205</v>
+        <v>29719</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>步步为赢2号</t>
+          <t>ETF板块热点</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>华龙证券温志芸</t>
+          <t>中山证券林嘉亮</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>696995624</v>
+        <v>514564146</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>218.41%</t>
+          <t>14.37%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>累计抓涨停23次</t>
+          <t>盈利超过80%同类</t>
         </is>
       </c>
     </row>
@@ -2140,29 +2140,29 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18758</v>
+        <v>29684</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>恰柠檬之聚焦龙头</t>
+          <t>主题成长优选</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>民生证券苑小光</t>
+          <t>国融证券苏学鹏</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>346805654</v>
+        <v>548823814</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>208.61%</t>
+          <t>14.15%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>累计抓涨停34次</t>
+          <t>盈利超过80%同类</t>
         </is>
       </c>
     </row>
@@ -2171,29 +2171,29 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13081</v>
+        <v>29642</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>好赛道出牛股</t>
+          <t>ETF波段低吸</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>华龙证券张红</t>
+          <t>粤开证券杨林林</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>658762275</v>
+        <v>141016951</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>207.39%</t>
+          <t>13.81%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>累计抓涨停67次</t>
+          <t>盈利超过80%同类</t>
         </is>
       </c>
     </row>
@@ -2202,29 +2202,29 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19494</v>
+        <v>29646</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>步步为赢1号</t>
+          <t>热点追踪猎手</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>华龙证券温志芸</t>
+          <t>东莞证券许月东</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>696995624</v>
+        <v>445001073</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>198.86%</t>
+          <t>12.80%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>累计抓涨停13次</t>
+          <t>盈利超过79%同类</t>
         </is>
       </c>
     </row>
@@ -2233,29 +2233,29 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12436</v>
+        <v>29706</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>跨越牛熊牛股不停</t>
+          <t>资产全球配置</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>国融证券刘林星</t>
+          <t>粤开证券马惠根</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>324869371</v>
+        <v>625345560</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>197.03%</t>
+          <t>12.66%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>累计抓涨停9次</t>
+          <t>盈利超过79%同类</t>
         </is>
       </c>
     </row>
@@ -2264,29 +2264,29 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>9564</v>
+        <v>29649</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>梦想2号</t>
+          <t>智网科技精选</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>华龙证券杨学涛</t>
+          <t>粤开证券徐巍巍</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>555661550</v>
+        <v>503957794</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>188.34%</t>
+          <t>12.40%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>累计抓涨停12次</t>
+          <t>盈利超过79%同类</t>
         </is>
       </c>
     </row>
@@ -2295,29 +2295,29 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18710</v>
+        <v>29639</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>稳扎稳打66</t>
+          <t>海内外etf</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>申港证券李春阳</t>
+          <t>粤开证券尹红飞</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>371102096</v>
+        <v>172320718</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>182.29%</t>
+          <t>12.20%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>累计抓涨停11次</t>
+          <t>盈利超过79%同类</t>
         </is>
       </c>
     </row>
@@ -2326,29 +2326,29 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>6994</v>
+        <v>29762</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>梦想1号</t>
+          <t>全球领先ETF</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>华龙证券杨学涛</t>
+          <t>粤开证券杜明学</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>555661550</v>
+        <v>347774050</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>179.84%</t>
+          <t>11.76%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>累计抓涨停22次</t>
+          <t>盈利超过78%同类</t>
         </is>
       </c>
     </row>
@@ -2357,29 +2357,29 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>6602</v>
+        <v>30059</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>博弈大师</t>
+          <t>擒妖百宝袋ETF</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>万和证券徐坚</t>
+          <t>东证许同心小魔女团队</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>81845978</v>
+        <v>255279833</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>169.33%</t>
+          <t>11.15%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>累计抓涨停44次</t>
+          <t>盈利超过78%同类</t>
         </is>
       </c>
     </row>
@@ -2388,29 +2388,29 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>20245</v>
+        <v>29749</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>财富快线</t>
+          <t>全球科技精选</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>华龙证券许卉玫</t>
+          <t>大同证券郭地发</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>716017305</v>
+        <v>116692241</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>165.22%</t>
+          <t>11.07%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>累计抓涨停11次</t>
+          <t>盈利超过78%同类</t>
         </is>
       </c>
     </row>
@@ -2419,29 +2419,29 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>12497</v>
+        <v>29753</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>泽磊超短</t>
+          <t>猎场稳健ETF</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>华龙证券赵慎磊</t>
+          <t>山西证券巩朝文</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>341291402</v>
+        <v>686791594</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>156.42%</t>
+          <t>10.89%</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>累计抓涨停29次</t>
+          <t>盈利超过77%同类</t>
         </is>
       </c>
     </row>
@@ -2506,29 +2506,29 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>19347</v>
+        <v>29734</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>超短稳定复利</t>
+          <t>热点追击ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>华源证券王坤团队</t>
+          <t>山西证券雷健健</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>722925685</v>
+        <v>408196716</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>623.37%</t>
+          <t>27.79%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>累计抓涨停45次</t>
+          <t>盈利超过88%同类</t>
         </is>
       </c>
     </row>
@@ -2537,29 +2537,29 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7152</v>
+        <v>29656</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中线龙头</t>
+          <t>龙头驾到ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>万和证券陈大松</t>
+          <t>东莞证券吴万叻团队</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>584897603</v>
+        <v>555348412</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>455.78%</t>
+          <t>26.96%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>累计抓涨停69次</t>
+          <t>盈利超过87%同类</t>
         </is>
       </c>
     </row>
@@ -2568,29 +2568,29 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>19880</v>
+        <v>29669</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>先锋擒龙</t>
+          <t>波段优选ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>联储证券周春耕</t>
+          <t>华源证券王庆芸</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>138467109</v>
+        <v>494769398</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>361.26%</t>
+          <t>25.11%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>累计抓涨停27次</t>
+          <t>盈利超过86%同类</t>
         </is>
       </c>
     </row>
@@ -2599,29 +2599,29 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>18565</v>
+        <v>29678</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>龙头一年三倍</t>
+          <t>科技腾飞精选</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>葛多玲</t>
+          <t>华源证券孙振</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>535178795</v>
+        <v>720851584</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>349.36%</t>
+          <t>20.78%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>累计抓涨停16次</t>
+          <t>盈利超过84%同类</t>
         </is>
       </c>
     </row>
@@ -2630,29 +2630,29 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18868</v>
+        <v>29705</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>价值精选1期</t>
+          <t>行业轮动俱荣先锋</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>华龙证券庄冠民</t>
+          <t>东莞证券马静</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>660400399</v>
+        <v>163765838</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>309.12%</t>
+          <t>19.98%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>累计抓涨停21次</t>
+          <t>盈利超过84%同类</t>
         </is>
       </c>
     </row>
@@ -2661,29 +2661,29 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11094</v>
+        <v>29761</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>低位题材埋伏</t>
+          <t>精选波段组合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>华林证券过往畅</t>
+          <t>民生证券范文秀</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>517861701</v>
+        <v>679685562</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>278.57%</t>
+          <t>17.08%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>累计抓涨停16次</t>
+          <t>盈利超过82%同类</t>
         </is>
       </c>
     </row>
@@ -2692,29 +2692,29 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20335</v>
+        <v>29617</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>财经扑克桃1</t>
+          <t>ETF灵蛇智投</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>联储证券杨凡</t>
+          <t>华龙证券左海瑞</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>513464951</v>
+        <v>170131901</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>249.28%</t>
+          <t>16.82%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>累计抓涨停7次</t>
+          <t>盈利超过82%同类</t>
         </is>
       </c>
     </row>
@@ -2723,29 +2723,29 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14980</v>
+        <v>29634</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>波段突击战法</t>
+          <t>主题轮动精选</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>长城证券姬忠栋</t>
+          <t>华龙证券张红</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>648078109</v>
+        <v>658762275</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>236.11%</t>
+          <t>15.75%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>累计抓涨停184次</t>
+          <t>盈利超过81%同类</t>
         </is>
       </c>
     </row>
@@ -2754,29 +2754,29 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16281</v>
+        <v>29702</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>每天进步一点点</t>
+          <t>前沿产业增配</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>红塔证券石善广</t>
+          <t>粤开证券马鑫</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>577530029</v>
+        <v>474778890</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>227.45%</t>
+          <t>14.59%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>累计抓涨停18次</t>
+          <t>盈利超过80%同类</t>
         </is>
       </c>
     </row>
@@ -2785,29 +2785,29 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20205</v>
+        <v>29719</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>步步为赢2号</t>
+          <t>ETF板块热点</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>华龙证券温志芸</t>
+          <t>中山证券林嘉亮</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>696995624</v>
+        <v>514564146</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>218.41%</t>
+          <t>14.37%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>累计抓涨停23次</t>
+          <t>盈利超过80%同类</t>
         </is>
       </c>
     </row>
@@ -2816,29 +2816,29 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18758</v>
+        <v>29684</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>恰柠檬之聚焦龙头</t>
+          <t>主题成长优选</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>民生证券苑小光</t>
+          <t>国融证券苏学鹏</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>346805654</v>
+        <v>548823814</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>208.61%</t>
+          <t>14.15%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>累计抓涨停34次</t>
+          <t>盈利超过80%同类</t>
         </is>
       </c>
     </row>
@@ -2847,29 +2847,29 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13081</v>
+        <v>29642</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>好赛道出牛股</t>
+          <t>ETF波段低吸</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>华龙证券张红</t>
+          <t>粤开证券杨林林</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>658762275</v>
+        <v>141016951</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>207.39%</t>
+          <t>13.81%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>累计抓涨停67次</t>
+          <t>盈利超过80%同类</t>
         </is>
       </c>
     </row>
@@ -2878,29 +2878,29 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19494</v>
+        <v>29646</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>步步为赢1号</t>
+          <t>热点追踪猎手</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>华龙证券温志芸</t>
+          <t>东莞证券许月东</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>696995624</v>
+        <v>445001073</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>198.86%</t>
+          <t>12.80%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>累计抓涨停13次</t>
+          <t>盈利超过79%同类</t>
         </is>
       </c>
     </row>
@@ -2909,29 +2909,29 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12436</v>
+        <v>29706</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>跨越牛熊牛股不停</t>
+          <t>资产全球配置</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>国融证券刘林星</t>
+          <t>粤开证券马惠根</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>324869371</v>
+        <v>625345560</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>197.03%</t>
+          <t>12.66%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>累计抓涨停9次</t>
+          <t>盈利超过79%同类</t>
         </is>
       </c>
     </row>
@@ -2940,29 +2940,29 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>9564</v>
+        <v>29649</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>梦想2号</t>
+          <t>智网科技精选</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>华龙证券杨学涛</t>
+          <t>粤开证券徐巍巍</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>555661550</v>
+        <v>503957794</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>188.34%</t>
+          <t>12.40%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>累计抓涨停12次</t>
+          <t>盈利超过79%同类</t>
         </is>
       </c>
     </row>
@@ -2971,29 +2971,29 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18710</v>
+        <v>29639</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>稳扎稳打66</t>
+          <t>海内外etf</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>申港证券李春阳</t>
+          <t>粤开证券尹红飞</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>371102096</v>
+        <v>172320718</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>182.29%</t>
+          <t>12.20%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>累计抓涨停11次</t>
+          <t>盈利超过79%同类</t>
         </is>
       </c>
     </row>
@@ -3002,29 +3002,29 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>6994</v>
+        <v>29762</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>梦想1号</t>
+          <t>全球领先ETF</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>华龙证券杨学涛</t>
+          <t>粤开证券杜明学</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>555661550</v>
+        <v>347774050</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>179.84%</t>
+          <t>11.76%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>累计抓涨停22次</t>
+          <t>盈利超过78%同类</t>
         </is>
       </c>
     </row>
@@ -3033,29 +3033,29 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>6602</v>
+        <v>30059</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>博弈大师</t>
+          <t>擒妖百宝袋ETF</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>万和证券徐坚</t>
+          <t>东证许同心小魔女团队</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>81845978</v>
+        <v>255279833</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>169.33%</t>
+          <t>11.15%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>累计抓涨停44次</t>
+          <t>盈利超过78%同类</t>
         </is>
       </c>
     </row>
@@ -3064,29 +3064,29 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>20245</v>
+        <v>29749</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>财富快线</t>
+          <t>全球科技精选</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>华龙证券许卉玫</t>
+          <t>大同证券郭地发</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>716017305</v>
+        <v>116692241</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>165.22%</t>
+          <t>11.07%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>累计抓涨停11次</t>
+          <t>盈利超过78%同类</t>
         </is>
       </c>
     </row>
@@ -3095,29 +3095,29 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>12497</v>
+        <v>29753</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>泽磊超短</t>
+          <t>猎场稳健ETF</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>华龙证券赵慎磊</t>
+          <t>山西证券巩朝文</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>341291402</v>
+        <v>686791594</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>156.42%</t>
+          <t>10.89%</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>累计抓涨停29次</t>
+          <t>盈利超过77%同类</t>
         </is>
       </c>
     </row>
